--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -359,32 +359,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
